--- a/Planilha_de_planejamento_de_testes.xlsx
+++ b/Planilha_de_planejamento_de_testes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36124872022.2N\Downloads\aula_testes_selenium_21JUN24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patricia\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C357BB0A-9B7A-4917-873D-8123624DED5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8790" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>Ord</t>
   </si>
@@ -127,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -140,6 +139,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -195,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,12 +238,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,7 +628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3745,11 +3754,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3849,36 +3858,42 @@
       </c>
     </row>
     <row r="11" spans="2:4" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B12" s="12">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B13" s="12">
+      <c r="D12" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="12">
+      <c r="D13" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="19">
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="19" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
@@ -3887,7 +3902,9 @@
       <c r="C15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="12" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
@@ -3896,7 +3913,9 @@
       <c r="C16" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="16"/>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="3:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C18" s="2"/>
@@ -6852,6 +6871,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>